--- a/CustomerComplaintsSystem/Test Plan.xlsx
+++ b/CustomerComplaintsSystem/Test Plan.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="141">
   <si>
     <t>Test No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,10 +604,6 @@
     <t>recordComplaintResolved</t>
   </si>
   <si>
-    <t>Should have no output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ccs.recordAction(liftComplaintID, "Fixed the elevator", new Date(6,4,2017));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,24 +646,39 @@
   <si>
     <t>ccs.recordComplaintResolved(staffComplaintID);</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION
+DESCRIPTION OF ACTION: Fixed the elevator
+DATE OF ACTION: 06/04/2017</t>
+  </si>
+  <si>
+    <t>ACTION
+DESCRIPTION OF ACTION: Asked Kiamara to knock more quietly
+DATE OF ACTION: 06/04/2017</t>
+  </si>
+  <si>
+    <t>ACTION
+DESCRIPTION OF ACTION: Informed the customer that Kiamara would be knocking more quietly
+DATE OF ACTION: 06/04/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -681,7 +687,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -690,7 +696,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -737,6 +743,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,15 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,29 +1077,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="34.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="3" customWidth="1"/>
-    <col min="5" max="6" width="49.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="49.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="19.5" customHeight="1">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1127,14 +1133,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1144,15 +1150,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
-        <f>B6+1</f>
+        <f t="shared" ref="B7:B20" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1163,72 +1169,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F10" si="0">F7+1</f>
+        <f t="shared" ref="F8:F10" si="1">F7+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <f>B9+1</f>
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <f>B10+1</f>
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1238,15 +1244,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" s="2">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1256,15 +1262,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" s="2">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1274,15 +1280,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" s="2">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1292,15 +1298,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="2">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1310,15 +1316,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="2">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1328,15 +1334,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1346,15 +1352,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1364,15 +1370,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="2">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1382,15 +1388,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="2">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1400,20 +1406,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,11 +1439,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1447,11 +1453,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="39" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1461,14 +1467,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="65.25" customHeight="1">
       <c r="B27" s="2">
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1478,11 +1484,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15" customHeight="1">
       <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1492,11 +1498,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="34.5" customHeight="1">
       <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1506,14 +1512,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="66.75" customHeight="1">
       <c r="B30" s="2">
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1523,14 +1529,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="149.25" customHeight="1">
       <c r="B31" s="2">
         <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1540,11 +1546,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15.75" customHeight="1">
       <c r="C32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1554,14 +1560,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="63.75" customHeight="1">
       <c r="B33" s="2">
         <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1571,11 +1577,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1585,11 +1591,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="30">
       <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1599,14 +1605,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="117" customHeight="1">
       <c r="B36" s="2">
         <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1616,11 +1622,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="18" customHeight="1">
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1630,11 +1636,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="36.75" customHeight="1">
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1644,14 +1650,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="118.5" customHeight="1">
       <c r="B39" s="2">
         <v>21</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -1661,11 +1667,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="18" customHeight="1">
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -1675,11 +1681,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="35.25" customHeight="1">
       <c r="C41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -1689,14 +1695,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="153" customHeight="1">
       <c r="B42" s="2">
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1706,11 +1712,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="C43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -1720,11 +1726,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="30">
       <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -1734,14 +1740,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="45">
       <c r="B45" s="2">
         <v>23</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -1751,11 +1757,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="17.25" customHeight="1">
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -1765,11 +1771,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="35.25" customHeight="1">
       <c r="C47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -1779,14 +1785,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="168" customHeight="1">
       <c r="B48" s="2">
         <v>24</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -1796,11 +1802,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" ht="14.25" customHeight="1">
       <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -1810,11 +1816,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" ht="30">
       <c r="C50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -1824,14 +1830,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" ht="45">
       <c r="B51" s="2">
         <v>25</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -1841,14 +1847,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" ht="105">
       <c r="B52" s="2">
         <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -1858,14 +1864,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" ht="16.5" customHeight="1">
       <c r="B53" s="2">
         <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -1875,14 +1881,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" ht="16.5" customHeight="1">
       <c r="B54" s="2">
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -1892,47 +1898,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="248.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="8">
+    <row r="55" spans="2:7" ht="248.25" customHeight="1">
+      <c r="B55" s="11">
         <f>B54+1</f>
         <v>29</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="333.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+    <row r="56" spans="2:7" ht="333.75" customHeight="1">
+      <c r="B56" s="11"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7">
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7">
       <c r="B58" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7">
       <c r="B59" s="1"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7">
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,11 +1958,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" ht="30">
       <c r="C61" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -1966,14 +1972,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" ht="19.5" customHeight="1">
       <c r="B62" s="2">
         <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -1983,11 +1989,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" ht="30">
       <c r="C63" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -1997,14 +2003,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" ht="18" customHeight="1">
       <c r="B64" s="2">
         <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -2014,11 +2020,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="30">
       <c r="C65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -2028,14 +2034,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="18.75" customHeight="1">
       <c r="B66" s="2">
         <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -2045,15 +2051,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="18" customHeight="1">
       <c r="B67" s="2">
-        <f>B66+1</f>
+        <f t="shared" ref="B67:B77" si="2">B66+1</f>
         <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -2063,15 +2069,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="114.75" customHeight="1">
       <c r="B68" s="2">
-        <f>B67+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -2081,15 +2087,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="19.5" customHeight="1">
       <c r="B69" s="2">
-        <f>B68+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -2099,135 +2105,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B70" s="2">
-        <f>B69+1</f>
-        <v>36</v>
-      </c>
+    <row r="70" spans="2:6" ht="30">
       <c r="C70" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B71" s="2">
-        <f>B70+1</f>
-        <v>37</v>
-      </c>
+    <row r="71" spans="2:6" ht="30">
       <c r="C71" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B72" s="2">
-        <f>B71+1</f>
-        <v>38</v>
-      </c>
+    <row r="72" spans="2:6" ht="45">
       <c r="C72" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="45">
+      <c r="B73" s="2">
+        <v>36</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B73" s="2">
-        <f>B72+1</f>
-        <v>39</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="60">
+      <c r="B74" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E74" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B74" s="2">
-        <f>B73+1</f>
-        <v>40</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="F74" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="60">
+      <c r="B75" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D75" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E75" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="2">
-        <f>B74+1</f>
-        <v>41</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B76" s="2">
-        <f>B75+1</f>
-        <v>42</v>
-      </c>
+      <c r="F75" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="30">
       <c r="C76" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="6" t="s">
         <v>126</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="135">
       <c r="B77" s="2">
-        <f>B76+1</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -2237,15 +2231,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6">
       <c r="B78" s="2">
-        <f t="shared" ref="B78:B81" si="1">B77+1</f>
-        <v>44</v>
+        <f t="shared" ref="B78:B81" si="3">B77+1</f>
+        <v>40</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -2255,33 +2249,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B79" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
+    <row r="79" spans="2:6" ht="30">
       <c r="C79" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="165" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="150">
       <c r="B80" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -2291,15 +2280,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6">
       <c r="B81" s="2">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -2309,12 +2298,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6">
       <c r="C82" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6">
       <c r="D94" s="2"/>
     </row>
   </sheetData>
